--- a/Tables replicated/FINAL RESULTS_table 3.xlsx
+++ b/Tables replicated/FINAL RESULTS_table 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\admin\documents\investment-strategies\tables replicated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\admin\documents\investment-strategies-final\tables replicated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E69AD5-CBAB-41E5-ABB3-689447F29E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F793D5-AC41-4732-9E61-063004BFEDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D70FFF09-82DA-42F9-A754-220AB2122D70}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D70FFF09-82DA-42F9-A754-220AB2122D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Option 1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
   <si>
     <t>Replication</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>CAPM Estimation</t>
+  </si>
+  <si>
+    <t>seh</t>
   </si>
 </sst>
 </file>
@@ -476,15 +479,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,18 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -595,6 +577,27 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBEFF01-20DF-4F98-88CB-57F71F09D406}">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,7 +966,7 @@
       <c r="N2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -980,161 +983,161 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="39"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27">
         <v>0.50962756885085803</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>0.56791588120299497</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>0.63592694302513497</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <v>0.55154116762459304</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="27">
         <v>0.56933477269995703</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="27">
         <v>0.58342845796350296</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="27">
         <v>0.62372145977437798</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="27">
         <v>0.53824328068919702</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="28">
         <v>0.38259805499256</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="28">
         <v>1.4588279698364201E-2</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="37">
         <v>0.82382252064939498</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25">
+      <c r="B5" s="29"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22">
         <v>2.4810512198884198</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>2.4843359257392499</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <v>2.5031284383849002</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <v>2.0610410947364701</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="22">
         <v>1.9646478849699001</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="22">
         <v>1.8504106070302799</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <v>1.8299394228857</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <v>1.4747198654065099</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="22">
         <v>0.91543280626422596</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="22">
         <v>2.54046798429397E-2</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="38">
         <v>2.8958539057404802</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="26">
+      <c r="D6" s="21"/>
+      <c r="E6" s="23">
         <v>0.51</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>0.61</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <v>0.53</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>0.5</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="23">
         <v>0.53</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="24">
         <v>0.44</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="24">
         <v>-0.17</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="39">
         <v>0.89</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34">
         <v>2.44</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="34">
         <v>2.41</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="34">
         <v>2.36</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="34">
         <v>1.95</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="34">
         <v>1.71</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="34">
         <v>1.67</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="34">
         <v>1.61</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="34">
         <v>1.19</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="34">
         <v>0.68</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="34">
         <v>-0.3</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="40">
         <v>3.09</v>
       </c>
     </row>
@@ -1143,25 +1146,25 @@
         <v>12</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <v>0.5</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>0.54</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="20">
         <v>0.51</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <v>0.48</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="20">
         <v>0.51</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="20">
         <v>0.52</v>
       </c>
       <c r="L8" s="10">
@@ -1173,7 +1176,7 @@
       <c r="N8" s="10">
         <v>-0.21</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="39">
         <v>0.88</v>
       </c>
     </row>
@@ -1210,7 +1213,7 @@
       <c r="N9" s="11">
         <v>-0.37</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="38">
         <v>3.06</v>
       </c>
     </row>
@@ -1219,25 +1222,25 @@
         <v>13</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>0.54</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <v>0.6</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <v>0.65</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="20">
         <v>0.6</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <v>0.59</v>
       </c>
       <c r="L10" s="10">
@@ -1249,7 +1252,7 @@
       <c r="N10" s="10">
         <v>-0.2</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="39">
         <v>0.94</v>
       </c>
     </row>
@@ -1286,7 +1289,7 @@
       <c r="N11" s="11">
         <v>-0.34</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="38">
         <v>3.22</v>
       </c>
     </row>
@@ -1295,25 +1298,25 @@
         <v>14</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>0.48</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <v>0.5</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="20">
         <v>0.48</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <v>0.52</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="20">
         <v>0.55000000000000004</v>
       </c>
       <c r="L12" s="10">
@@ -1325,7 +1328,7 @@
       <c r="N12" s="10">
         <v>-0.03</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="39">
         <v>0.75</v>
       </c>
     </row>
@@ -1362,7 +1365,7 @@
       <c r="N13" s="11">
         <v>-0.05</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="38">
         <v>2.5</v>
       </c>
     </row>
@@ -1401,7 +1404,7 @@
       <c r="N14" s="10">
         <v>1.47</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1439,7 +1442,7 @@
       <c r="N15" s="10">
         <v>0.23200000000000001</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="41">
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
@@ -1477,7 +1480,7 @@
       <c r="N16" s="10">
         <v>35.64</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="41">
         <v>17.66</v>
       </c>
     </row>
@@ -1515,7 +1518,7 @@
       <c r="N17" s="10">
         <v>0</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="42">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -1576,12 +1579,12 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
@@ -1595,7 +1598,7 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="6">
-        <v>-1.6891E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1611,7 +1614,7 @@
         <v>5.24</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>2.194</v>
       </c>
       <c r="H25" s="4"/>
@@ -1644,7 +1647,7 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="6">
-        <v>2.8545999999999998E-2</v>
+        <v>-2.8500000000000001E-2</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1660,7 +1663,7 @@
         <v>2.58</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="13">
+      <c r="G28" s="14">
         <v>1.87</v>
       </c>
       <c r="H28" s="4"/>
@@ -2548,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD52D7D-6427-42E8-BF1B-3066BD1FF3C6}">
   <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3297,7 +3300,7 @@
   <dimension ref="B1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4044,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E93D64-9AC8-4C2D-9466-64DE64BA47DD}">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4061,61 +4064,61 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="28"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="47"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="49"/>
-      <c r="H3" s="21" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="H3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="L3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="P3" s="48" t="s">
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="P3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="49"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D4" s="50"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="51"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="51"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65"/>
     </row>
     <row r="5" spans="2:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="45" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -4136,44 +4139,44 @@
       <c r="N5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="45" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="53" t="s">
+      <c r="R5" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="57">
+      <c r="D7" s="50">
         <f>'Option 1'!E4</f>
         <v>0.50962756885085803</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <f>'Option 1'!N4</f>
         <v>1.4588279698364201E-2</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <f>'Option 1'!O4</f>
         <v>0.82382252064939498</v>
       </c>
@@ -4201,15 +4204,15 @@
         <f>'Option 3'!N4</f>
         <v>0.32098550018076599</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="50">
         <f>'Option 4'!D4</f>
         <v>0.45339743258679299</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="24">
         <f>'Option 4'!M4</f>
         <v>1.9806002019081701E-2</v>
       </c>
-      <c r="R7" s="58">
+      <c r="R7" s="51">
         <f>'Option 4'!N4</f>
         <v>0.74504510212096997</v>
       </c>
@@ -4217,15 +4220,15 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="59">
+      <c r="D8" s="52">
         <f>'Option 1'!E5</f>
         <v>2.4810512198884198</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <f>'Option 1'!N5</f>
         <v>2.54046798429397E-2</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="30">
         <f>'Option 1'!O5</f>
         <v>2.8958539057404802</v>
       </c>
@@ -4253,15 +4256,15 @@
         <f>'Option 3'!N5</f>
         <v>0.31915493456123201</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="52">
         <f>'Option 4'!D5</f>
         <v>2.24347633373797</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="22">
         <f>'Option 4'!M5</f>
         <v>3.3054746087439003E-2</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="30">
         <f>'Option 4'!N5</f>
         <v>1.51874401157463</v>
       </c>
@@ -4271,15 +4274,15 @@
         <v>11</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="57">
+      <c r="D9" s="50">
         <f>'Option 1'!E6</f>
         <v>0.51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <f>'Option 1'!N6</f>
         <v>-0.17</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <f>'Option 1'!O6</f>
         <v>0.89</v>
       </c>
@@ -4307,15 +4310,15 @@
         <f>'Option 3'!N6</f>
         <v>-0.22</v>
       </c>
-      <c r="P9" s="57">
+      <c r="P9" s="50">
         <f>'Option 4'!D6</f>
         <v>0.44</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="24">
         <f>'Option 4'!M6</f>
         <v>-0.18</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="31">
         <f>'Option 4'!N6</f>
         <v>0.91</v>
       </c>
@@ -4323,15 +4326,15 @@
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="59">
+      <c r="D10" s="52">
         <f>'Option 1'!E7</f>
         <v>2.44</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <f>'Option 1'!N7</f>
         <v>-0.3</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="30">
         <f>'Option 1'!O7</f>
         <v>3.09</v>
       </c>
@@ -4359,15 +4362,15 @@
         <f>'Option 3'!N7</f>
         <v>-0.22</v>
       </c>
-      <c r="P10" s="59">
+      <c r="P10" s="52">
         <f>'Option 4'!D7</f>
         <v>2.15</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="22">
         <f>'Option 4'!M7</f>
         <v>-0.3</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="30">
         <f>'Option 4'!N7</f>
         <v>1.84</v>
       </c>
@@ -4377,15 +4380,15 @@
         <v>12</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="57">
+      <c r="D11" s="50">
         <f>'Option 1'!E8</f>
         <v>0.5</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <f>'Option 1'!N8</f>
         <v>-0.21</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <f>'Option 1'!O8</f>
         <v>0.88</v>
       </c>
@@ -4413,15 +4416,15 @@
         <f>'Option 3'!N8</f>
         <v>-0.25</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="50">
         <f>'Option 4'!D8</f>
         <v>0.43</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="24">
         <f>'Option 4'!M8</f>
         <v>-0.22</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="31">
         <f>'Option 4'!N8</f>
         <v>0.87</v>
       </c>
@@ -4429,15 +4432,15 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="59">
+      <c r="D12" s="52">
         <f>'Option 1'!E9</f>
         <v>2.42</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <f>'Option 1'!N9</f>
         <v>-0.37</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="30">
         <f>'Option 1'!O9</f>
         <v>3.06</v>
       </c>
@@ -4465,15 +4468,15 @@
         <f>'Option 3'!N9</f>
         <v>-0.25</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="52">
         <f>'Option 4'!D9</f>
         <v>2.12</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="22">
         <f>'Option 4'!M9</f>
         <v>-0.37</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="30">
         <f>'Option 4'!N9</f>
         <v>1.78</v>
       </c>
@@ -4483,15 +4486,15 @@
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="57">
+      <c r="D13" s="50">
         <f>'Option 1'!E10</f>
         <v>0.54</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="24">
         <f>'Option 1'!N10</f>
         <v>-0.2</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="31">
         <f>'Option 1'!O10</f>
         <v>0.94</v>
       </c>
@@ -4519,15 +4522,15 @@
         <f>'Option 3'!N10</f>
         <v>0.03</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="50">
         <f>'Option 4'!D10</f>
         <v>0.47</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="24">
         <f>'Option 4'!M10</f>
         <v>-0.18</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="31">
         <f>'Option 4'!N10</f>
         <v>0.94</v>
       </c>
@@ -4535,15 +4538,15 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="59">
+      <c r="D14" s="52">
         <f>'Option 1'!E11</f>
         <v>2.56</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <f>'Option 1'!N11</f>
         <v>-0.34</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="30">
         <f>'Option 1'!O11</f>
         <v>3.22</v>
       </c>
@@ -4571,15 +4574,15 @@
         <f>'Option 3'!N11</f>
         <v>0.03</v>
       </c>
-      <c r="P14" s="59">
+      <c r="P14" s="52">
         <f>'Option 4'!D11</f>
         <v>2.2799999999999998</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="22">
         <f>'Option 4'!M11</f>
         <v>-0.3</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="30">
         <f>'Option 4'!N11</f>
         <v>1.88</v>
       </c>
@@ -4589,15 +4592,15 @@
         <v>14</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="57">
+      <c r="D15" s="50">
         <f>'Option 1'!E12</f>
         <v>0.48</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="24">
         <f>'Option 1'!N12</f>
         <v>-0.03</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <f>'Option 1'!O12</f>
         <v>0.75</v>
       </c>
@@ -4625,15 +4628,15 @@
         <f>'Option 3'!N12</f>
         <v>-0.57999999999999996</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="50">
         <f>'Option 4'!D12</f>
         <v>0.39</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="24">
         <f>'Option 4'!M12</f>
         <v>0.02</v>
       </c>
-      <c r="R15" s="58">
+      <c r="R15" s="51">
         <f>'Option 4'!N12</f>
         <v>0.68</v>
       </c>
@@ -4641,15 +4644,15 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="59">
+      <c r="D16" s="52">
         <f>'Option 1'!E13</f>
         <v>2.2200000000000002</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <f>'Option 1'!N13</f>
         <v>-0.05</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="30">
         <f>'Option 1'!O13</f>
         <v>2.5</v>
       </c>
@@ -4677,15 +4680,15 @@
         <f>'Option 3'!N13</f>
         <v>-0.56000000000000005</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="52">
         <f>'Option 4'!D13</f>
         <v>1.81</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16" s="22">
         <f>'Option 4'!M13</f>
         <v>0.04</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="30">
         <f>'Option 4'!N13</f>
         <v>1.32</v>
       </c>
@@ -4695,15 +4698,15 @@
         <v>15</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="60">
+      <c r="D17" s="53">
         <f>'Option 1'!E14</f>
         <v>0.67</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="24">
         <f>'Option 1'!N14</f>
         <v>1.47</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="51">
         <f>'Option 1'!O14</f>
         <v>0</v>
       </c>
@@ -4731,15 +4734,15 @@
         <f>'Option 3'!N14</f>
         <v>0</v>
       </c>
-      <c r="P17" s="60">
+      <c r="P17" s="53">
         <f>'Option 4'!D14</f>
         <v>0.64</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="24">
         <f>'Option 4'!M14</f>
         <v>1.5</v>
       </c>
-      <c r="R17" s="58">
+      <c r="R17" s="51">
         <f>'Option 4'!N14</f>
         <v>0</v>
       </c>
@@ -4748,15 +4751,15 @@
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="53">
         <f>'Option 1'!E15</f>
         <v>1E-3</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <f>'Option 1'!N15</f>
         <v>0.23200000000000001</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="51">
         <f>'Option 1'!O15</f>
         <v>-8.4000000000000005E-2</v>
       </c>
@@ -4784,15 +4787,15 @@
         <f>'Option 3'!N15</f>
         <v>0.66900000000000004</v>
       </c>
-      <c r="P18" s="60">
+      <c r="P18" s="53">
         <f>'Option 4'!D15</f>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="24">
         <f>'Option 4'!M15</f>
         <v>0.251</v>
       </c>
-      <c r="R18" s="58">
+      <c r="R18" s="51">
         <f>'Option 4'!N15</f>
         <v>-0.20599999999999999</v>
       </c>
@@ -4801,15 +4804,15 @@
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="53">
         <f>'Option 1'!E16</f>
         <v>12.75</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="24">
         <f>'Option 1'!N16</f>
         <v>35.64</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="51">
         <f>'Option 1'!O16</f>
         <v>17.66</v>
       </c>
@@ -4837,15 +4840,15 @@
         <f>'Option 3'!N16</f>
         <v>62.42</v>
       </c>
-      <c r="P19" s="60">
+      <c r="P19" s="53">
         <f>'Option 4'!D16</f>
         <v>12.54</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="24">
         <f>'Option 4'!M16</f>
         <v>37.19</v>
       </c>
-      <c r="R19" s="58">
+      <c r="R19" s="51">
         <f>'Option 4'!N16</f>
         <v>30.45</v>
       </c>
@@ -4854,15 +4857,15 @@
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="53">
         <f>'Option 1'!E17</f>
         <v>0.48</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <f>'Option 1'!N17</f>
         <v>0</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="51">
         <f>'Option 1'!O17</f>
         <v>0.56000000000000005</v>
       </c>
@@ -4890,27 +4893,27 @@
         <f>'Option 3'!N17</f>
         <v>0.06</v>
       </c>
-      <c r="P20" s="60">
+      <c r="P20" s="53">
         <f>'Option 4'!D17</f>
         <v>0.43</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="24">
         <f>'Option 4'!M17</f>
         <v>0.01</v>
       </c>
-      <c r="R20" s="58">
+      <c r="R20" s="51">
         <f>'Option 4'!N17</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="62"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="55"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
@@ -4928,6 +4931,9 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
